--- a/Food Diary.xlsx
+++ b/Food Diary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\Box\TC\Personal\Food\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\Box\TC\Personal\Food\Food\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFE3904-64C9-4C23-83C0-83528CF44C37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D58B2DF-E412-406A-A07A-FBE0EA6E8BB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="22776" windowHeight="13176" xr2:uid="{05A5D1BC-1B43-42BE-9C8B-CDB5140BAB23}"/>
+    <workbookView xWindow="624" yWindow="-108" windowWidth="22524" windowHeight="13176" xr2:uid="{05A5D1BC-1B43-42BE-9C8B-CDB5140BAB23}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -659,10 +659,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2F5A03-E932-4A0C-81A9-1A9C22FF21FC}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G215"/>
+  <dimension ref="A1:G218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="B213" sqref="B213:C214"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3041,6 +3041,45 @@
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>44267</v>
+      </c>
+      <c r="B215" t="s">
+        <v>22</v>
+      </c>
+      <c r="C215">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B216" t="s">
+        <v>26</v>
+      </c>
+      <c r="C216">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B217" t="s">
+        <v>25</v>
+      </c>
+      <c r="C217">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B218" t="s">
+        <v>79</v>
+      </c>
+      <c r="C218">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Food Diary.xlsx
+++ b/Food Diary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\Box\TC\Personal\Food\Food\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D58B2DF-E412-406A-A07A-FBE0EA6E8BB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367D1793-E42E-4081-AE70-CE9053D0E9E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="624" yWindow="-108" windowWidth="22524" windowHeight="13176" xr2:uid="{05A5D1BC-1B43-42BE-9C8B-CDB5140BAB23}"/>
+    <workbookView xWindow="624" yWindow="-108" windowWidth="22524" windowHeight="13176" activeTab="1" xr2:uid="{05A5D1BC-1B43-42BE-9C8B-CDB5140BAB23}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>Heavy cream</t>
+  </si>
+  <si>
+    <t>Sirloin steak</t>
+  </si>
+  <si>
+    <t>KIND bar caramel sea salt</t>
   </si>
 </sst>
 </file>
@@ -659,10 +665,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2F5A03-E932-4A0C-81A9-1A9C22FF21FC}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="C219" sqref="C219"/>
+    <sheetView topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3082,6 +3088,163 @@
         <v>85</v>
       </c>
     </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B219" t="s">
+        <v>18</v>
+      </c>
+      <c r="C219">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B220" t="s">
+        <v>10</v>
+      </c>
+      <c r="C220">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B221" t="s">
+        <v>9</v>
+      </c>
+      <c r="C221">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B222" t="s">
+        <v>51</v>
+      </c>
+      <c r="C222">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B223" t="s">
+        <v>81</v>
+      </c>
+      <c r="C223">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B224" t="s">
+        <v>82</v>
+      </c>
+      <c r="C224">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="2">
+        <v>44268</v>
+      </c>
+      <c r="B225" t="s">
+        <v>23</v>
+      </c>
+      <c r="C225">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="2">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="2">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="2">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="2">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="2">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="2">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="2">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="2">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="2">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="2">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
+        <v>44268</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3090,10 +3253,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80863E33-97F8-42E0-A22C-713F8A86203A}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3603,432 +3766,469 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="B30">
-        <v>0.1</v>
+        <v>0.375</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D30">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="E30">
-        <v>1.4</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="B31">
-        <v>0.21428571428571427</v>
+        <v>0.1</v>
       </c>
       <c r="C31">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E31">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="C32">
-        <v>6.25E-2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.46875</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>77</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <f>7/17</f>
         <v>0.41176470588235292</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <f>0/17</f>
         <v>0</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <f>-6/17</f>
         <v>-0.35294117647058826</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <f>90/17</f>
         <v>5.2941176470588234</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>6.6666666999999999E-2</v>
-      </c>
-      <c r="D34">
-        <v>6.6666666999999999E-2</v>
-      </c>
-      <c r="E34">
-        <v>0.66666666699999999</v>
-      </c>
-    </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B35">
-        <v>0.21428571399999999</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>3.5714285999999998E-2</v>
+        <v>6.6666666999999999E-2</v>
       </c>
       <c r="D35">
-        <v>0.25</v>
+        <v>6.6666666999999999E-2</v>
       </c>
       <c r="E35">
-        <v>2.8571428569999999</v>
+        <v>0.66666666699999999</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B36">
-        <v>3.0000000000000001E-3</v>
+        <v>0.21428571399999999</v>
       </c>
       <c r="C36">
-        <v>2.1999999999999999E-2</v>
+        <v>3.5714285999999998E-2</v>
       </c>
       <c r="D36">
-        <v>3.5999999999999997E-2</v>
+        <v>0.25</v>
       </c>
       <c r="E36">
-        <v>0.26</v>
+        <v>2.8571428569999999</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C37">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D37">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E37">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>78</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <f>1/16</f>
         <v>6.25E-2</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
         <f>10/16</f>
         <v>0.625</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>9.2857143000000003E-2</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0.39285714300000002</v>
-      </c>
-    </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B39">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>9.2857143000000003E-2</v>
       </c>
       <c r="D39">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>0.39285714300000002</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B40">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C40">
-        <v>0.178571429</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="E40">
-        <v>6.0714285710000002</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.178571429</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>6.0714285710000002</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>0.46428571400000002</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0.178571429</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>0.21428571399999999</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>5.7142857139999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B43">
+        <v>0.46428571400000002</v>
+      </c>
+      <c r="C43">
         <v>0.178571429</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
       <c r="D43">
-        <v>0.64285714299999996</v>
+        <v>0.21428571399999999</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>5.7142857139999998</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B44">
-        <v>0.15882352899999999</v>
+        <v>0.178571429</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0.24705882400000001</v>
+        <v>0.64285714299999996</v>
       </c>
       <c r="E44">
-        <v>2.4705882350000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B45">
-        <v>0.26315789499999998</v>
+        <v>0.15882352899999999</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0.26315789499999998</v>
+        <v>0.24705882400000001</v>
       </c>
       <c r="E45">
-        <v>3.6842105260000002</v>
+        <v>2.4705882350000001</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B46">
-        <v>7.1428569999999999E-3</v>
+        <v>0.26315789499999998</v>
       </c>
       <c r="C46">
-        <v>5.7142856999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>1.4285714E-2</v>
+        <v>0.26315789499999998</v>
       </c>
       <c r="E46">
-        <v>0.52857142899999998</v>
+        <v>3.6842105260000002</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B47">
-        <v>0.5</v>
+        <v>7.1428569999999999E-3</v>
       </c>
       <c r="C47">
-        <v>7.1428571428571425E-2</v>
+        <v>5.7142856999999998E-2</v>
       </c>
       <c r="D47">
-        <v>0.42857142857142855</v>
+        <v>1.4285714E-2</v>
       </c>
       <c r="E47">
-        <v>5.7142857142857144</v>
+        <v>0.52857142899999998</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B48">
-        <v>0.1666667</v>
+        <f>0.4/2.8</f>
+        <v>0.14285714285714288</v>
       </c>
       <c r="C48">
-        <v>3.3333330000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>3.3333330000000001E-2</v>
+        <f>0.8/2.8</f>
+        <v>0.28571428571428575</v>
       </c>
       <c r="E48">
-        <v>0.5</v>
+        <f>3.6/2.8</f>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C49">
-        <v>1.1764706E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="D49">
-        <v>2.3529412E-2</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="E49">
-        <v>0.235294118</v>
+        <v>5.7142857142857144</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B50">
-        <v>1.428571E-3</v>
+        <v>0.1666667</v>
       </c>
       <c r="C50">
-        <v>2.7142856999999999E-2</v>
+        <v>3.3333330000000001E-2</v>
       </c>
       <c r="D50">
-        <v>8.5714290000000002E-3</v>
+        <v>3.3333330000000001E-2</v>
       </c>
       <c r="E50">
-        <v>0.18571428600000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>0.16666666699999999</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1.1764706E-2</v>
       </c>
       <c r="D51">
-        <v>0.133333333</v>
+        <v>2.3529412E-2</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>0.235294118</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B52">
-        <v>0.1</v>
+        <v>1.428571E-3</v>
       </c>
       <c r="C52">
-        <v>0.01</v>
+        <v>2.7142856999999999E-2</v>
       </c>
       <c r="D52">
-        <v>0.17</v>
+        <v>8.5714290000000002E-3</v>
       </c>
       <c r="E52">
-        <v>1.71</v>
+        <v>0.18571428600000001</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B53">
-        <v>3.5398230000000003E-2</v>
+        <v>0.16666666699999999</v>
       </c>
       <c r="C53">
-        <v>4.4247788000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>1.7699115000000001E-2</v>
+        <v>0.133333333</v>
       </c>
       <c r="E53">
-        <v>0.61946902699999995</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54">
+        <v>0.1</v>
+      </c>
+      <c r="C54">
+        <v>0.01</v>
+      </c>
+      <c r="D54">
+        <v>0.17</v>
+      </c>
+      <c r="E54">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55">
+        <v>3.5398230000000003E-2</v>
+      </c>
+      <c r="C55">
+        <v>4.4247788000000003E-2</v>
+      </c>
+      <c r="D55">
+        <v>1.7699115000000001E-2</v>
+      </c>
+      <c r="E55">
+        <v>0.61946902699999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>15</v>
       </c>
-      <c r="B54">
+      <c r="B56">
         <v>0.26086956500000003</v>
       </c>
-      <c r="C54">
+      <c r="C56">
         <v>0.130434783</v>
       </c>
-      <c r="D54">
+      <c r="D56">
         <v>0.26086956500000003</v>
       </c>
-      <c r="E54">
+      <c r="E56">
         <v>3.9130434780000001</v>
       </c>
     </row>

--- a/Food Diary.xlsx
+++ b/Food Diary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\Box\TC\Personal\Food\Food\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367D1793-E42E-4081-AE70-CE9053D0E9E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66017218-7484-4591-BA74-498665AC30FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="624" yWindow="-108" windowWidth="22524" windowHeight="13176" activeTab="1" xr2:uid="{05A5D1BC-1B43-42BE-9C8B-CDB5140BAB23}"/>
+    <workbookView xWindow="624" yWindow="-108" windowWidth="22524" windowHeight="13176" xr2:uid="{05A5D1BC-1B43-42BE-9C8B-CDB5140BAB23}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -667,8 +667,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G241"/>
   <sheetViews>
-    <sheetView topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3169,15 +3169,33 @@
       <c r="A226" s="2">
         <v>44268</v>
       </c>
+      <c r="B226" t="s">
+        <v>81</v>
+      </c>
+      <c r="C226">
+        <v>152</v>
+      </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>44268</v>
       </c>
+      <c r="B227" t="s">
+        <v>26</v>
+      </c>
+      <c r="C227">
+        <v>90</v>
+      </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>44268</v>
+      </c>
+      <c r="B228" t="s">
+        <v>25</v>
+      </c>
+      <c r="C228">
+        <v>28</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -3255,7 +3273,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>

--- a/Food Diary.xlsx
+++ b/Food Diary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\Box\TC\Personal\Food\Food\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66017218-7484-4591-BA74-498665AC30FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D50C4E-1D8D-478F-9D4E-C3795C758C66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="624" yWindow="-108" windowWidth="22524" windowHeight="13176" xr2:uid="{05A5D1BC-1B43-42BE-9C8B-CDB5140BAB23}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="22776" windowHeight="13176" xr2:uid="{05A5D1BC-1B43-42BE-9C8B-CDB5140BAB23}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -665,10 +665,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2F5A03-E932-4A0C-81A9-1A9C22FF21FC}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G241"/>
+  <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="B229" sqref="B229"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3202,65 +3202,241 @@
       <c r="A229" s="2">
         <v>44268</v>
       </c>
+      <c r="B229" t="s">
+        <v>19</v>
+      </c>
+      <c r="C229">
+        <v>14</v>
+      </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>44268</v>
       </c>
+      <c r="B230" t="s">
+        <v>17</v>
+      </c>
+      <c r="C230">
+        <v>100</v>
+      </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>44268</v>
       </c>
+      <c r="B231" t="s">
+        <v>77</v>
+      </c>
+      <c r="C231">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>44268</v>
       </c>
+      <c r="B232" t="s">
+        <v>81</v>
+      </c>
+      <c r="C232">
+        <v>174</v>
+      </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>44268</v>
       </c>
+      <c r="B233" t="s">
+        <v>26</v>
+      </c>
+      <c r="C233">
+        <v>76</v>
+      </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>44268</v>
       </c>
+      <c r="B234" t="s">
+        <v>25</v>
+      </c>
+      <c r="C234">
+        <v>22</v>
+      </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>44268</v>
       </c>
+      <c r="B235" t="s">
+        <v>48</v>
+      </c>
+      <c r="C235">
+        <v>42</v>
+      </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>44268</v>
       </c>
+      <c r="B236" t="s">
+        <v>35</v>
+      </c>
+      <c r="C236">
+        <v>360</v>
+      </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>44268</v>
       </c>
+      <c r="B237" t="s">
+        <v>41</v>
+      </c>
+      <c r="C237">
+        <v>19</v>
+      </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>44268</v>
       </c>
+      <c r="B238" t="s">
+        <v>79</v>
+      </c>
+      <c r="C238">
+        <v>85</v>
+      </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>44268</v>
       </c>
+      <c r="B239" t="s">
+        <v>33</v>
+      </c>
+      <c r="C239">
+        <v>85</v>
+      </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>44268</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B240" t="s">
+        <v>75</v>
+      </c>
+      <c r="C240">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>44268</v>
+      </c>
+      <c r="B241" t="s">
+        <v>25</v>
+      </c>
+      <c r="C241">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="2">
+        <v>44269</v>
+      </c>
+      <c r="B242" t="s">
+        <v>19</v>
+      </c>
+      <c r="C242">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="2">
+        <v>44269</v>
+      </c>
+      <c r="B243" t="s">
+        <v>17</v>
+      </c>
+      <c r="C243">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
+        <v>44269</v>
+      </c>
+      <c r="B244" t="s">
+        <v>77</v>
+      </c>
+      <c r="C244">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="2">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="2">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="2">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="2">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="2">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="2">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="2">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="2">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="2">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="2">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="2">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="2">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="2">
+        <v>44269</v>
       </c>
     </row>
   </sheetData>
@@ -3273,8 +3449,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3553,7 +3729,8 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.8183419999999998E-3</v>
+        <f>10/360</f>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">

--- a/Food Diary.xlsx
+++ b/Food Diary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\Box\TC\Personal\Food\Food\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D50C4E-1D8D-478F-9D4E-C3795C758C66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB61A62-52AA-4873-8D8F-5FED4926662A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="22776" windowHeight="13176" xr2:uid="{05A5D1BC-1B43-42BE-9C8B-CDB5140BAB23}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -668,7 +668,7 @@
   <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="B245" sqref="B245"/>
+      <selection activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3378,10 +3378,22 @@
       <c r="A245" s="2">
         <v>44269</v>
       </c>
+      <c r="B245" t="s">
+        <v>23</v>
+      </c>
+      <c r="C245">
+        <v>55</v>
+      </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>44269</v>
+      </c>
+      <c r="B246" t="s">
+        <v>38</v>
+      </c>
+      <c r="C246">
+        <v>20</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">

--- a/Food Diary.xlsx
+++ b/Food Diary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\Box\TC\Personal\Food\Food\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB61A62-52AA-4873-8D8F-5FED4926662A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DCDD9D-0FB6-45EB-BC1C-0529CCD97870}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="22776" windowHeight="13176" xr2:uid="{05A5D1BC-1B43-42BE-9C8B-CDB5140BAB23}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -667,8 +667,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="B247" sqref="B247"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="C247" sqref="C247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3399,6 +3399,12 @@
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>44269</v>
+      </c>
+      <c r="B247" t="s">
+        <v>15</v>
+      </c>
+      <c r="C247">
+        <v>23</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
